--- a/biology/Zoologie/Bowie_giang/Bowie_giang.xlsx
+++ b/biology/Zoologie/Bowie_giang/Bowie_giang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bowie giang est une espèce d'araignées aranéomorphes de la famille des Ctenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bowie giang est une espèce d'araignées aranéomorphes de la famille des Ctenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Lâm Đồng au Viêt Nam[1],[2]. Elle se rencontre vers Lạc Dương dans le parc national de Bidoup Núi Bà.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Lâm Đồng au Viêt Nam,. Elle se rencontre vers Lạc Dương dans le parc national de Bidoup Núi Bà.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 6,30 mm de long sur 4,95 mm et l'abdomen 5,25 mm de long sur 3,75 mm et la carapace de la femelle paratype mesure 7,40 mm de long sur 5,70 mm et l'abdomen 7,90 mm de long sur 5,30 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 6,30 mm de long sur 4,95 mm et l'abdomen 5,25 mm de long sur 3,75 mm et la carapace de la femelle paratype mesure 7,40 mm de long sur 5,70 mm et l'abdomen 7,90 mm de long sur 5,30 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Logunov en 2024.
 </t>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Giang Ly.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Logunov, 2024 : « On two species of Bowie Jäger, 2022 (Aranei: Ctenidae) from Vietnam. » Invertebrate Zoology, vol. 21, no 1, p. 97-102.</t>
         </is>
